--- a/iecodebook_chapter2.xlsx
+++ b/iecodebook_chapter2.xlsx
@@ -8,34 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d57917il\Documents\GitHub\Chapter2-PhDthesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8731907-D257-4396-AE68-36A7A8C4FCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F31BA2-A7FF-4A9C-B98D-BD410DEB76E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="15" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="choices_current" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="375">
   <si>
     <t>name</t>
   </si>
@@ -106,9 +93,6 @@
     <t>mun</t>
   </si>
   <si>
-    <t>est</t>
-  </si>
-  <si>
     <t>t_loc</t>
   </si>
   <si>
@@ -127,12 +111,6 @@
     <t>eda</t>
   </si>
   <si>
-    <t>cs_p13_1</t>
-  </si>
-  <si>
-    <t>n_hij</t>
-  </si>
-  <si>
     <t>e_con</t>
   </si>
   <si>
@@ -277,9 +255,6 @@
     <t>Municipio</t>
   </si>
   <si>
-    <t>Estrato</t>
-  </si>
-  <si>
     <t>Tamaño de la localidad</t>
   </si>
   <si>
@@ -298,12 +273,6 @@
     <t>Edad</t>
   </si>
   <si>
-    <t>Pregunta 13 ¿Hasta que grado aprobó … en la escuela</t>
-  </si>
-  <si>
-    <t>Número de hijos</t>
-  </si>
-  <si>
     <t>Estado conyugal</t>
   </si>
   <si>
@@ -379,9 +348,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>str1</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
@@ -430,9 +396,6 @@
     <t>11</t>
   </si>
   <si>
-    <t>99</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -595,39 +558,6 @@
     <t>Desocupados Ausentes sin ingreso y sin nexo  laborla</t>
   </si>
   <si>
-    <t>Ninguno</t>
-  </si>
-  <si>
-    <t>Preescolar</t>
-  </si>
-  <si>
-    <t>Primaria</t>
-  </si>
-  <si>
-    <t>Secundaria</t>
-  </si>
-  <si>
-    <t>Preparatoria o bachillerato</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Carrera técnica</t>
-  </si>
-  <si>
-    <t>Profesional</t>
-  </si>
-  <si>
-    <t>Maestría</t>
-  </si>
-  <si>
-    <t>Doctorado</t>
-  </si>
-  <si>
-    <t>No Sabe</t>
-  </si>
-  <si>
     <t>Menor de doce años</t>
   </si>
   <si>
@@ -790,87 +720,6 @@
     <t>De 6 hijos y más</t>
   </si>
   <si>
-    <t>Es menor o es hombre o es mujer sin hijos</t>
-  </si>
-  <si>
-    <t>Un hijo</t>
-  </si>
-  <si>
-    <t>Dos hijos</t>
-  </si>
-  <si>
-    <t>Tres hijos</t>
-  </si>
-  <si>
-    <t>Cuatro Hijos</t>
-  </si>
-  <si>
-    <t>Cinco hijos</t>
-  </si>
-  <si>
-    <t>Seis hijos</t>
-  </si>
-  <si>
-    <t>Siete hijos</t>
-  </si>
-  <si>
-    <t>Ocho hijos</t>
-  </si>
-  <si>
-    <t>Nueve hijos</t>
-  </si>
-  <si>
-    <t>Diez hijos</t>
-  </si>
-  <si>
-    <t>Once hijos</t>
-  </si>
-  <si>
-    <t>Doce hijos</t>
-  </si>
-  <si>
-    <t>Trece hijos</t>
-  </si>
-  <si>
-    <t>Catorce hijos</t>
-  </si>
-  <si>
-    <t>Quince hijos</t>
-  </si>
-  <si>
-    <t>Dieciséis hijos</t>
-  </si>
-  <si>
-    <t>Diecisiete hijos</t>
-  </si>
-  <si>
-    <t>Dieciocho hijos</t>
-  </si>
-  <si>
-    <t>Diecinueve hijos</t>
-  </si>
-  <si>
-    <t>Veinte hijos</t>
-  </si>
-  <si>
-    <t>Veintiun hijos</t>
-  </si>
-  <si>
-    <t>Veintidos hijos</t>
-  </si>
-  <si>
-    <t>Veintitres hijos</t>
-  </si>
-  <si>
-    <t>Veinticuatro hijos</t>
-  </si>
-  <si>
-    <t>Veinticinco hijos</t>
-  </si>
-  <si>
-    <t>Veintiséis hijos</t>
-  </si>
-  <si>
     <t>No sons or daughters</t>
   </si>
   <si>
@@ -1075,64 +924,82 @@
     <t>Year/Quarter</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Relationship with the household head</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Educational level</t>
+  </si>
+  <si>
+    <t>Marital Status</t>
+  </si>
+  <si>
+    <t>Urban/rural identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight </t>
+  </si>
+  <si>
+    <t>Economically active identifier</t>
+  </si>
+  <si>
+    <t>Economically active categories</t>
+  </si>
+  <si>
+    <t>Economically active. Extended categories</t>
+  </si>
+  <si>
+    <t>Unpaid, salaried, self-employed, employer</t>
+  </si>
+  <si>
+    <t>Economic activity</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>Economic sectors</t>
+  </si>
+  <si>
+    <t>Economic activity. Extended</t>
+  </si>
+  <si>
+    <t>Categories of non-economically active population</t>
+  </si>
+  <si>
+    <t>Monthly income</t>
+  </si>
+  <si>
+    <t>Economic activities (SCIAN categories)</t>
+  </si>
+  <si>
+    <t>Main job. Formal/Informal</t>
+  </si>
+  <si>
     <t>Did you move from your hometown to keep or maintain your current job?</t>
   </si>
   <si>
-    <t>Relationship with the household head</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Educational level</t>
-  </si>
-  <si>
     <t>Number of sons or daughters born alive</t>
   </si>
   <si>
-    <t>Marital Status</t>
-  </si>
-  <si>
-    <t>Urban/rural identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weight </t>
-  </si>
-  <si>
-    <t>Economically active identifier</t>
-  </si>
-  <si>
-    <t>Economically active categories</t>
-  </si>
-  <si>
-    <t>Economically active. Extended categories</t>
-  </si>
-  <si>
-    <t>Unpaid, salaried, self-employed, employer</t>
-  </si>
-  <si>
-    <t>Economic activity</t>
-  </si>
-  <si>
-    <t>Occupation</t>
-  </si>
-  <si>
-    <t>Economic sectors</t>
-  </si>
-  <si>
-    <t>Economic activity. Extended</t>
-  </si>
-  <si>
-    <t>Categories of non-economically active population</t>
-  </si>
-  <si>
-    <t>Monthly income</t>
-  </si>
-  <si>
-    <t>Economic activities (SCIAN categories)</t>
-  </si>
-  <si>
-    <t>Main job. Formal/Informal</t>
+    <t>Household identifier (year/quarter)</t>
+  </si>
+  <si>
+    <t>Respondent identifier (year/quarter)</t>
+  </si>
+  <si>
+    <t>Economic activity of the company where you are working</t>
+  </si>
+  <si>
+    <t>Working Age categories</t>
+  </si>
+  <si>
+    <t>Economic sector of they company where you are working</t>
   </si>
   <si>
     <t>Working in the food industry</t>
@@ -1165,15 +1032,15 @@
     <t>Working in media</t>
   </si>
   <si>
+    <t>Working in financial services</t>
+  </si>
+  <si>
     <t>Working in corporate services</t>
   </si>
   <si>
     <t>Working in education services</t>
   </si>
   <si>
-    <t>Working in financial services</t>
-  </si>
-  <si>
     <t>Working in health services</t>
   </si>
   <si>
@@ -1186,18 +1053,15 @@
     <t>Working in clerical jobs</t>
   </si>
   <si>
+    <t>(116=1)(217=2)(318=3)(419=4)</t>
+  </si>
+  <si>
+    <t>(2=0)</t>
+  </si>
+  <si>
     <t>(0=.)</t>
   </si>
   <si>
-    <t>(2=0)</t>
-  </si>
-  <si>
-    <t>(9=.)</t>
-  </si>
-  <si>
-    <t>(116=1)(217=2)(318=3)(419=4)</t>
-  </si>
-  <si>
     <t>1st quarter of 2016</t>
   </si>
   <si>
@@ -1225,7 +1089,64 @@
     <t>Less than 2,500 inhabitants</t>
   </si>
   <si>
-    <t>.</t>
+    <t>Free union</t>
+  </si>
+  <si>
+    <t>Separated</t>
+  </si>
+  <si>
+    <t>Divorced</t>
+  </si>
+  <si>
+    <t>Widowed</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Economically active population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-economically active population </t>
+  </si>
+  <si>
+    <t>(9=.d)</t>
+  </si>
+  <si>
+    <t>Informal job</t>
+  </si>
+  <si>
+    <t>Formal job</t>
+  </si>
+  <si>
+    <t>Employed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employed without salary </t>
+  </si>
+  <si>
+    <t>Employed / absent with job nexus</t>
+  </si>
+  <si>
+    <t>Employed / absent with assured return</t>
+  </si>
+  <si>
+    <t>Unemployed</t>
+  </si>
+  <si>
+    <t>Unemployed but looking for a job</t>
+  </si>
+  <si>
+    <t>Unemployed, absent, and without job nexus nor assured return</t>
+  </si>
+  <si>
+    <t>Avaiable</t>
+  </si>
+  <si>
+    <t>Unavaiable</t>
   </si>
 </sst>
 </file>
@@ -1590,23 +1511,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" customWidth="1"/>
-    <col min="9" max="9" width="26.26953125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -1626,16 +1547,16 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
+      </c>
+      <c r="I1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -1663,7 +1584,7 @@
       <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1672,7 +1593,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>341</v>
+        <v>295</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -1684,15 +1605,15 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1701,19 +1622,19 @@
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
@@ -1721,7 +1642,7 @@
       <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1730,7 +1651,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>343</v>
+        <v>298</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -1742,15 +1663,15 @@
         <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1759,36 +1680,36 @@
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>344</v>
+        <v>299</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>20</v>
+      <c r="I6" s="2" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>345</v>
+      <c r="A7" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -1800,24 +1721,21 @@
         <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>386</v>
+      <c r="I7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
+      <c r="B8" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -1829,15 +1747,15 @@
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1846,7 +1764,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>347</v>
+        <v>302</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -1858,15 +1776,12 @@
         <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1875,28 +1790,28 @@
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -1904,19 +1819,19 @@
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" t="s">
-        <v>20</v>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E11" t="s">
         <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
@@ -1924,13 +1839,16 @@
       <c r="H11" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>20</v>
+      <c r="I11" s="2" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>396</v>
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>306</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -1942,15 +1860,15 @@
         <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G12" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1959,19 +1877,19 @@
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>351</v>
+        <v>307</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" t="s">
-        <v>20</v>
+      <c r="D13" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E13" t="s">
         <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s">
         <v>5</v>
@@ -1979,8 +1897,8 @@
       <c r="H13" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>385</v>
+      <c r="I13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -1988,19 +1906,19 @@
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="D14" t="s">
-        <v>20</v>
+      <c r="D14" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E14" t="s">
         <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
@@ -2008,8 +1926,8 @@
       <c r="H14" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>384</v>
+      <c r="I14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -2017,27 +1935,27 @@
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="D15" t="s">
-        <v>20</v>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E15" t="s">
         <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2046,7 +1964,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>354</v>
+        <v>310</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
@@ -2058,7 +1976,7 @@
         <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
@@ -2066,7 +1984,7 @@
       <c r="H16" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2075,7 +1993,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
@@ -2087,7 +2005,7 @@
         <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s">
         <v>5</v>
@@ -2095,7 +2013,7 @@
       <c r="H17" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2104,7 +2022,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>356</v>
+        <v>312</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -2116,7 +2034,7 @@
         <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G18" t="s">
         <v>5</v>
@@ -2124,7 +2042,7 @@
       <c r="H18" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2133,7 +2051,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>357</v>
+        <v>313</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
@@ -2145,7 +2063,7 @@
         <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s">
         <v>5</v>
@@ -2153,7 +2071,7 @@
       <c r="H19" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2162,7 +2080,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
@@ -2174,7 +2092,7 @@
         <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
@@ -2182,7 +2100,7 @@
       <c r="H20" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2191,7 +2109,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>359</v>
+        <v>315</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
@@ -2203,7 +2121,7 @@
         <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G21" t="s">
         <v>5</v>
@@ -2211,16 +2129,16 @@
       <c r="H21" t="s">
         <v>40</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>360</v>
+      <c r="A22" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
@@ -2232,7 +2150,7 @@
         <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G22" t="s">
         <v>5</v>
@@ -2240,7 +2158,7 @@
       <c r="H22" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2249,7 +2167,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
@@ -2261,16 +2179,16 @@
         <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G23" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="H23" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -2278,7 +2196,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
@@ -2290,7 +2208,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G24" t="s">
         <v>5</v>
@@ -2298,13 +2216,16 @@
       <c r="H24" t="s">
         <v>43</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>396</v>
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
@@ -2316,7 +2237,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G25" t="s">
         <v>5</v>
@@ -2324,7 +2245,7 @@
       <c r="H25" t="s">
         <v>44</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2333,7 +2254,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
@@ -2345,16 +2266,16 @@
         <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G26" t="s">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="H26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>383</v>
+        <v>45</v>
+      </c>
+      <c r="I26" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -2362,7 +2283,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>364</v>
+        <v>323</v>
       </c>
       <c r="C27" t="s">
         <v>20</v>
@@ -2374,15 +2295,15 @@
         <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G27" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I27" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2391,7 +2312,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>365</v>
+        <v>322</v>
       </c>
       <c r="C28" t="s">
         <v>20</v>
@@ -2403,15 +2324,15 @@
         <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="G28" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2420,7 +2341,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="C29" t="s">
         <v>20</v>
@@ -2432,15 +2353,15 @@
         <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="G29" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
-      </c>
-      <c r="I29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2461,15 +2382,15 @@
         <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G30" t="s">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="H30" t="s">
-        <v>119</v>
-      </c>
-      <c r="I30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2477,8 +2398,8 @@
       <c r="A31" t="s">
         <v>20</v>
       </c>
-      <c r="B31" t="s">
-        <v>20</v>
+      <c r="B31" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="C31" t="s">
         <v>20</v>
@@ -2490,15 +2411,15 @@
         <v>50</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="G31" t="s">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I31" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2506,8 +2427,8 @@
       <c r="A32" t="s">
         <v>20</v>
       </c>
-      <c r="B32" t="s">
-        <v>20</v>
+      <c r="B32" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="C32" t="s">
         <v>20</v>
@@ -2519,15 +2440,15 @@
         <v>51</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="G32" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="H32" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2535,8 +2456,8 @@
       <c r="A33" t="s">
         <v>20</v>
       </c>
-      <c r="B33" t="s">
-        <v>20</v>
+      <c r="B33" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="C33" t="s">
         <v>20</v>
@@ -2548,7 +2469,7 @@
         <v>52</v>
       </c>
       <c r="F33" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="G33" t="s">
         <v>5</v>
@@ -2556,7 +2477,7 @@
       <c r="H33" t="s">
         <v>52</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2565,7 +2486,7 @@
         <v>20</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="C34" t="s">
         <v>20</v>
@@ -2577,7 +2498,7 @@
         <v>53</v>
       </c>
       <c r="F34" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G34" t="s">
         <v>5</v>
@@ -2585,7 +2506,7 @@
       <c r="H34" t="s">
         <v>53</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2594,7 +2515,7 @@
         <v>20</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="C35" t="s">
         <v>20</v>
@@ -2606,7 +2527,7 @@
         <v>54</v>
       </c>
       <c r="F35" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G35" t="s">
         <v>5</v>
@@ -2614,7 +2535,7 @@
       <c r="H35" t="s">
         <v>54</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2641,9 +2562,9 @@
         <v>5</v>
       </c>
       <c r="H36" t="s">
-        <v>55</v>
-      </c>
-      <c r="I36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2664,15 +2585,15 @@
         <v>56</v>
       </c>
       <c r="F37" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="G37" t="s">
         <v>5</v>
       </c>
       <c r="H37" t="s">
-        <v>56</v>
-      </c>
-      <c r="I37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2693,15 +2614,15 @@
         <v>57</v>
       </c>
       <c r="F38" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="G38" t="s">
         <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>57</v>
-      </c>
-      <c r="I38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2709,8 +2630,8 @@
       <c r="A39" t="s">
         <v>20</v>
       </c>
-      <c r="B39" t="s">
-        <v>20</v>
+      <c r="B39" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="C39" t="s">
         <v>20</v>
@@ -2730,7 +2651,7 @@
       <c r="H39" t="s">
         <v>20</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2738,8 +2659,8 @@
       <c r="A40" t="s">
         <v>20</v>
       </c>
-      <c r="B40" t="s">
-        <v>20</v>
+      <c r="B40" s="1" t="s">
+        <v>327</v>
       </c>
       <c r="C40" t="s">
         <v>20</v>
@@ -2759,7 +2680,7 @@
       <c r="H40" t="s">
         <v>20</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="I40" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2767,8 +2688,8 @@
       <c r="A41" t="s">
         <v>20</v>
       </c>
-      <c r="B41" t="s">
-        <v>20</v>
+      <c r="B41" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="C41" t="s">
         <v>20</v>
@@ -2788,7 +2709,7 @@
       <c r="H41" t="s">
         <v>20</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="I41" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2797,7 +2718,7 @@
         <v>20</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="C42" t="s">
         <v>20</v>
@@ -2817,7 +2738,7 @@
       <c r="H42" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I42" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2826,7 +2747,7 @@
         <v>20</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="C43" t="s">
         <v>20</v>
@@ -2846,7 +2767,7 @@
       <c r="H43" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I43" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2855,7 +2776,7 @@
         <v>20</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="C44" t="s">
         <v>20</v>
@@ -2875,7 +2796,7 @@
       <c r="H44" t="s">
         <v>20</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="I44" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2884,7 +2805,7 @@
         <v>20</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C45" t="s">
         <v>20</v>
@@ -2904,7 +2825,7 @@
       <c r="H45" t="s">
         <v>20</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I45" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2913,7 +2834,7 @@
         <v>20</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C46" t="s">
         <v>20</v>
@@ -2933,7 +2854,7 @@
       <c r="H46" t="s">
         <v>20</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="I46" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2942,7 +2863,7 @@
         <v>20</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="C47" t="s">
         <v>20</v>
@@ -2962,7 +2883,7 @@
       <c r="H47" t="s">
         <v>20</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2971,7 +2892,7 @@
         <v>20</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="C48" t="s">
         <v>20</v>
@@ -2991,7 +2912,7 @@
       <c r="H48" t="s">
         <v>20</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="I48" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3000,7 +2921,7 @@
         <v>20</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="C49" t="s">
         <v>20</v>
@@ -3020,7 +2941,7 @@
       <c r="H49" t="s">
         <v>20</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="I49" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3029,7 +2950,7 @@
         <v>20</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="C50" t="s">
         <v>20</v>
@@ -3049,7 +2970,7 @@
       <c r="H50" t="s">
         <v>20</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="I50" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3058,7 +2979,7 @@
         <v>20</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>375</v>
+        <v>338</v>
       </c>
       <c r="C51" t="s">
         <v>20</v>
@@ -3078,7 +2999,7 @@
       <c r="H51" t="s">
         <v>20</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="I51" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3087,7 +3008,7 @@
         <v>20</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="C52" t="s">
         <v>20</v>
@@ -3107,7 +3028,7 @@
       <c r="H52" t="s">
         <v>20</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="I52" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3116,7 +3037,7 @@
         <v>20</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="C53" t="s">
         <v>20</v>
@@ -3136,7 +3057,7 @@
       <c r="H53" t="s">
         <v>20</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="I53" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3145,7 +3066,7 @@
         <v>20</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="C54" t="s">
         <v>20</v>
@@ -3165,7 +3086,7 @@
       <c r="H54" t="s">
         <v>20</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="I54" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3174,7 +3095,7 @@
         <v>20</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="C55" t="s">
         <v>20</v>
@@ -3194,94 +3115,7 @@
       <c r="H55" t="s">
         <v>20</v>
       </c>
-      <c r="I55" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C56" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56" t="s">
-        <v>20</v>
-      </c>
-      <c r="E56" t="s">
-        <v>75</v>
-      </c>
-      <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s">
-        <v>5</v>
-      </c>
-      <c r="H56" t="s">
-        <v>20</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>20</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C57" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57" t="s">
-        <v>20</v>
-      </c>
-      <c r="E57" t="s">
-        <v>76</v>
-      </c>
-      <c r="F57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" t="s">
-        <v>20</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C58" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E58" t="s">
-        <v>77</v>
-      </c>
-      <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" t="s">
-        <v>20</v>
-      </c>
-      <c r="I58" s="3" t="s">
+      <c r="I55" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3292,16 +3126,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="3"/>
-    <col min="3" max="3" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.36328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="3"/>
+    <col min="3" max="3" width="55.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -3372,129 +3207,399 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>387</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="3">
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3">
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>389</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="3">
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>390</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>391</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" s="3">
         <v>0</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>337</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>392</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="3">
         <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>393</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>394</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="3">
         <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18"/>
-      <c r="B18"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19"/>
-      <c r="B19"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20"/>
-      <c r="B20"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21"/>
-      <c r="B21"/>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" t="s">
+        <v>372</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3503,24 +3608,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C212"/>
+  <dimension ref="A1:C173"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>9</v>
       </c>
       <c r="C1" t="s">
@@ -3529,2323 +3632,1894 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>121</v>
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>122</v>
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>123</v>
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>121</v>
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>122</v>
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>123</v>
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>124</v>
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>125</v>
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>126</v>
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>127</v>
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>128</v>
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>129</v>
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>122</v>
       </c>
       <c r="C16" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>130</v>
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>121</v>
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>114</v>
       </c>
       <c r="C19" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>122</v>
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>115</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>121</v>
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>121</v>
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>114</v>
       </c>
       <c r="C26" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>122</v>
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>115</v>
       </c>
       <c r="C27" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>123</v>
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>116</v>
       </c>
       <c r="C28" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>121</v>
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>122</v>
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>115</v>
       </c>
       <c r="C32" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>123</v>
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>116</v>
       </c>
       <c r="C33" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>124</v>
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>117</v>
       </c>
       <c r="C34" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>125</v>
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>118</v>
       </c>
       <c r="C35" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>126</v>
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>119</v>
       </c>
       <c r="C36" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" t="s">
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>121</v>
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>114</v>
       </c>
       <c r="C39" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>122</v>
+        <v>29</v>
+      </c>
+      <c r="B40" t="s">
+        <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>123</v>
+        <v>29</v>
+      </c>
+      <c r="B41" t="s">
+        <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>124</v>
+        <v>29</v>
+      </c>
+      <c r="B42" t="s">
+        <v>117</v>
       </c>
       <c r="C42" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>125</v>
+        <v>29</v>
+      </c>
+      <c r="B43" t="s">
+        <v>118</v>
       </c>
       <c r="C43" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>126</v>
+        <v>29</v>
+      </c>
+      <c r="B44" t="s">
+        <v>121</v>
       </c>
       <c r="C44" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>127</v>
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>30</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>128</v>
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>131</v>
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>114</v>
       </c>
       <c r="C47" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>10</v>
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>115</v>
       </c>
       <c r="C48" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>11</v>
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>116</v>
       </c>
       <c r="C49" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>121</v>
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>117</v>
       </c>
       <c r="C50" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>32</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>122</v>
+        <v>44</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>32</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>123</v>
+        <v>44</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>32</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>124</v>
+        <v>44</v>
+      </c>
+      <c r="B53" t="s">
+        <v>114</v>
       </c>
       <c r="C53" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>32</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>125</v>
+        <v>24</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>32</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>128</v>
+        <v>24</v>
+      </c>
+      <c r="B55" t="s">
+        <v>114</v>
       </c>
       <c r="C55" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="B56" t="s">
+        <v>115</v>
       </c>
       <c r="C56" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
       </c>
       <c r="C57" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>121</v>
+        <v>24</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
       </c>
       <c r="C58" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>54</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>122</v>
+        <v>24</v>
+      </c>
+      <c r="B59" t="s">
+        <v>118</v>
       </c>
       <c r="C59" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>54</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>123</v>
+        <v>24</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
       </c>
       <c r="C60" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>54</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>124</v>
+        <v>24</v>
+      </c>
+      <c r="B61" t="s">
+        <v>120</v>
       </c>
       <c r="C61" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>47</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="B62" t="s">
+        <v>121</v>
       </c>
       <c r="C62" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>47</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="B63" t="s">
+        <v>122</v>
       </c>
       <c r="C63" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>47</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>121</v>
+        <v>24</v>
+      </c>
+      <c r="B64" t="s">
+        <v>123</v>
       </c>
       <c r="C64" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>25</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="B65" t="s">
+        <v>124</v>
       </c>
       <c r="C65" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>25</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>121</v>
+        <v>24</v>
+      </c>
+      <c r="B66" t="s">
+        <v>125</v>
       </c>
       <c r="C66" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>25</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>122</v>
+        <v>24</v>
+      </c>
+      <c r="B67" t="s">
+        <v>126</v>
       </c>
       <c r="C67" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>25</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>123</v>
+        <v>24</v>
+      </c>
+      <c r="B68" t="s">
+        <v>127</v>
       </c>
       <c r="C68" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>25</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>124</v>
+        <v>24</v>
+      </c>
+      <c r="B69" t="s">
+        <v>128</v>
       </c>
       <c r="C69" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>25</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>125</v>
+        <v>24</v>
+      </c>
+      <c r="B70" t="s">
+        <v>129</v>
       </c>
       <c r="C70" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>25</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>126</v>
+        <v>24</v>
+      </c>
+      <c r="B71" t="s">
+        <v>130</v>
       </c>
       <c r="C71" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>25</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>127</v>
+        <v>24</v>
+      </c>
+      <c r="B72" t="s">
+        <v>131</v>
       </c>
       <c r="C72" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>25</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>128</v>
+        <v>24</v>
+      </c>
+      <c r="B73" t="s">
+        <v>132</v>
       </c>
       <c r="C73" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>25</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>129</v>
+        <v>24</v>
+      </c>
+      <c r="B74" t="s">
+        <v>133</v>
       </c>
       <c r="C74" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>25</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>130</v>
+        <v>24</v>
+      </c>
+      <c r="B75" t="s">
+        <v>134</v>
       </c>
       <c r="C75" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>25</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>132</v>
+        <v>24</v>
+      </c>
+      <c r="B76" t="s">
+        <v>135</v>
       </c>
       <c r="C76" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>25</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>133</v>
+        <v>24</v>
+      </c>
+      <c r="B77" t="s">
+        <v>136</v>
       </c>
       <c r="C77" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>25</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>134</v>
+        <v>24</v>
+      </c>
+      <c r="B78" t="s">
+        <v>137</v>
       </c>
       <c r="C78" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>25</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>135</v>
+        <v>24</v>
+      </c>
+      <c r="B79" t="s">
+        <v>138</v>
       </c>
       <c r="C79" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>25</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>136</v>
+        <v>24</v>
+      </c>
+      <c r="B80" t="s">
+        <v>139</v>
       </c>
       <c r="C80" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>25</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>137</v>
+        <v>24</v>
+      </c>
+      <c r="B81" t="s">
+        <v>140</v>
       </c>
       <c r="C81" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>25</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>138</v>
+        <v>24</v>
+      </c>
+      <c r="B82" t="s">
+        <v>141</v>
       </c>
       <c r="C82" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>25</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>139</v>
+        <v>24</v>
+      </c>
+      <c r="B83" t="s">
+        <v>142</v>
       </c>
       <c r="C83" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>25</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>140</v>
+        <v>24</v>
+      </c>
+      <c r="B84" t="s">
+        <v>143</v>
       </c>
       <c r="C84" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>25</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>141</v>
+        <v>24</v>
+      </c>
+      <c r="B85" t="s">
+        <v>144</v>
       </c>
       <c r="C85" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>25</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>142</v>
+        <v>49</v>
+      </c>
+      <c r="B86" t="s">
+        <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>25</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>143</v>
+        <v>49</v>
+      </c>
+      <c r="B87" t="s">
+        <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>25</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>144</v>
+        <v>41</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
       </c>
       <c r="C88" t="s">
-        <v>236</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>25</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>145</v>
+        <v>41</v>
+      </c>
+      <c r="B89" t="s">
+        <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>25</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>146</v>
+        <v>41</v>
+      </c>
+      <c r="B90" t="s">
+        <v>114</v>
       </c>
       <c r="C90" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>25</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>147</v>
+        <v>41</v>
+      </c>
+      <c r="B91" t="s">
+        <v>115</v>
       </c>
       <c r="C91" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>25</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>148</v>
+        <v>41</v>
+      </c>
+      <c r="B92" t="s">
+        <v>116</v>
       </c>
       <c r="C92" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>25</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>149</v>
+        <v>41</v>
+      </c>
+      <c r="B93" t="s">
+        <v>117</v>
       </c>
       <c r="C93" t="s">
-        <v>241</v>
+        <v>161</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>25</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>150</v>
+        <v>50</v>
+      </c>
+      <c r="B94" t="s">
+        <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>25</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>151</v>
+        <v>50</v>
+      </c>
+      <c r="B95" t="s">
+        <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>25</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>152</v>
+        <v>50</v>
+      </c>
+      <c r="B96" t="s">
+        <v>114</v>
       </c>
       <c r="C96" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>52</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="B97" t="s">
+        <v>115</v>
       </c>
       <c r="C97" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>52</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>11</v>
+        <v>50</v>
+      </c>
+      <c r="B98" t="s">
+        <v>116</v>
       </c>
       <c r="C98" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>44</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="B99" t="s">
+        <v>117</v>
       </c>
       <c r="C99" t="s">
-        <v>158</v>
+        <v>237</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>44</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>11</v>
+        <v>45</v>
+      </c>
+      <c r="B100" t="s">
+        <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>247</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>44</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>121</v>
+        <v>45</v>
+      </c>
+      <c r="B101" t="s">
+        <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>44</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>122</v>
+        <v>45</v>
+      </c>
+      <c r="B102" t="s">
+        <v>114</v>
       </c>
       <c r="C102" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>44</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>123</v>
+        <v>112</v>
+      </c>
+      <c r="B103" t="s">
+        <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>44</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>124</v>
+        <v>25</v>
+      </c>
+      <c r="B104" t="s">
+        <v>145</v>
       </c>
       <c r="C104" t="s">
-        <v>169</v>
+        <v>240</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>31</v>
-      </c>
-      <c r="B105" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B105" t="s">
         <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>251</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>31</v>
-      </c>
-      <c r="B106" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B106" t="s">
         <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>31</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>121</v>
+        <v>40</v>
+      </c>
+      <c r="B107" t="s">
+        <v>114</v>
       </c>
       <c r="C107" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>31</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>122</v>
+        <v>40</v>
+      </c>
+      <c r="B108" t="s">
+        <v>115</v>
       </c>
       <c r="C108" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>31</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>123</v>
+        <v>40</v>
+      </c>
+      <c r="B109" t="s">
+        <v>116</v>
       </c>
       <c r="C109" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>31</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>124</v>
+        <v>40</v>
+      </c>
+      <c r="B110" t="s">
+        <v>117</v>
       </c>
       <c r="C110" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>31</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>125</v>
+        <v>40</v>
+      </c>
+      <c r="B111" t="s">
+        <v>118</v>
       </c>
       <c r="C111" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>31</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>126</v>
+        <v>35</v>
+      </c>
+      <c r="B112" t="s">
+        <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>258</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>31</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>127</v>
+        <v>35</v>
+      </c>
+      <c r="B113" t="s">
+        <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>31</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>128</v>
+        <v>35</v>
+      </c>
+      <c r="B114" t="s">
+        <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>31</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>129</v>
+        <v>35</v>
+      </c>
+      <c r="B115" t="s">
+        <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>31</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>130</v>
+        <v>35</v>
+      </c>
+      <c r="B116" t="s">
+        <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>31</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>132</v>
+        <v>35</v>
+      </c>
+      <c r="B117" t="s">
+        <v>117</v>
       </c>
       <c r="C117" t="s">
-        <v>263</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>31</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>133</v>
+        <v>36</v>
+      </c>
+      <c r="B118" t="s">
+        <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>264</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>31</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>134</v>
+        <v>36</v>
+      </c>
+      <c r="B119" t="s">
+        <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>31</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>135</v>
+        <v>36</v>
+      </c>
+      <c r="B120" t="s">
+        <v>114</v>
       </c>
       <c r="C120" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>31</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>136</v>
+        <v>36</v>
+      </c>
+      <c r="B121" t="s">
+        <v>115</v>
       </c>
       <c r="C121" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>31</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>137</v>
+        <v>36</v>
+      </c>
+      <c r="B122" t="s">
+        <v>116</v>
       </c>
       <c r="C122" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>31</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>138</v>
+        <v>36</v>
+      </c>
+      <c r="B123" t="s">
+        <v>117</v>
       </c>
       <c r="C123" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>31</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>139</v>
+        <v>36</v>
+      </c>
+      <c r="B124" t="s">
+        <v>118</v>
       </c>
       <c r="C124" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>31</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>140</v>
+        <v>36</v>
+      </c>
+      <c r="B125" t="s">
+        <v>119</v>
       </c>
       <c r="C125" t="s">
-        <v>271</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>31</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>141</v>
+        <v>38</v>
+      </c>
+      <c r="B126" t="s">
+        <v>10</v>
       </c>
       <c r="C126" t="s">
-        <v>272</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>31</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>142</v>
+        <v>38</v>
+      </c>
+      <c r="B127" t="s">
+        <v>11</v>
       </c>
       <c r="C127" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>31</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>143</v>
+        <v>38</v>
+      </c>
+      <c r="B128" t="s">
+        <v>114</v>
       </c>
       <c r="C128" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>31</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>144</v>
+        <v>38</v>
+      </c>
+      <c r="B129" t="s">
+        <v>115</v>
       </c>
       <c r="C129" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>31</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>145</v>
+        <v>38</v>
+      </c>
+      <c r="B130" t="s">
+        <v>116</v>
       </c>
       <c r="C130" t="s">
-        <v>276</v>
+        <v>161</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>31</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>146</v>
+        <v>39</v>
+      </c>
+      <c r="B131" t="s">
+        <v>10</v>
       </c>
       <c r="C131" t="s">
-        <v>277</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>31</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>131</v>
+        <v>39</v>
+      </c>
+      <c r="B132" t="s">
+        <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>53</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>10</v>
+        <v>39</v>
+      </c>
+      <c r="B133" t="s">
+        <v>114</v>
       </c>
       <c r="C133" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>53</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>11</v>
+        <v>39</v>
+      </c>
+      <c r="B134" t="s">
+        <v>115</v>
       </c>
       <c r="C134" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>53</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>121</v>
+        <v>39</v>
+      </c>
+      <c r="B135" t="s">
+        <v>116</v>
       </c>
       <c r="C135" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>53</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>122</v>
+        <v>39</v>
+      </c>
+      <c r="B136" t="s">
+        <v>117</v>
       </c>
       <c r="C136" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>53</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>123</v>
+        <v>39</v>
+      </c>
+      <c r="B137" t="s">
+        <v>118</v>
       </c>
       <c r="C137" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>53</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>124</v>
+        <v>39</v>
+      </c>
+      <c r="B138" t="s">
+        <v>119</v>
       </c>
       <c r="C138" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>48</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>10</v>
+        <v>39</v>
+      </c>
+      <c r="B139" t="s">
+        <v>120</v>
       </c>
       <c r="C139" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>48</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>11</v>
+        <v>39</v>
+      </c>
+      <c r="B140" t="s">
+        <v>121</v>
       </c>
       <c r="C140" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>48</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>121</v>
+        <v>39</v>
+      </c>
+      <c r="B141" t="s">
+        <v>122</v>
       </c>
       <c r="C141" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>119</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>10</v>
+        <v>39</v>
+      </c>
+      <c r="B142" t="s">
+        <v>123</v>
       </c>
       <c r="C142" t="s">
-        <v>158</v>
+        <v>266</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>26</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>153</v>
+        <v>43</v>
+      </c>
+      <c r="B143" t="s">
+        <v>10</v>
       </c>
       <c r="C143" t="s">
-        <v>286</v>
+        <v>150</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>43</v>
       </c>
-      <c r="B144" s="3" t="s">
-        <v>10</v>
+      <c r="B144" t="s">
+        <v>11</v>
       </c>
       <c r="C144" t="s">
-        <v>158</v>
+        <v>267</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>43</v>
       </c>
-      <c r="B145" s="3" t="s">
-        <v>11</v>
+      <c r="B145" t="s">
+        <v>114</v>
       </c>
       <c r="C145" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>43</v>
       </c>
-      <c r="B146" s="3" t="s">
-        <v>121</v>
+      <c r="B146" t="s">
+        <v>115</v>
       </c>
       <c r="C146" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>43</v>
       </c>
-      <c r="B147" s="3" t="s">
-        <v>122</v>
+      <c r="B147" t="s">
+        <v>116</v>
       </c>
       <c r="C147" t="s">
-        <v>289</v>
+        <v>251</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>43</v>
       </c>
-      <c r="B148" s="3" t="s">
-        <v>123</v>
+      <c r="B148" t="s">
+        <v>117</v>
       </c>
       <c r="C148" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>43</v>
       </c>
-      <c r="B149" s="3" t="s">
-        <v>124</v>
+      <c r="B149" t="s">
+        <v>118</v>
       </c>
       <c r="C149" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>43</v>
       </c>
-      <c r="B150" s="3" t="s">
-        <v>125</v>
+      <c r="B150" t="s">
+        <v>119</v>
       </c>
       <c r="C150" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>38</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>10</v>
+        <v>43</v>
+      </c>
+      <c r="B151" t="s">
+        <v>120</v>
       </c>
       <c r="C151" t="s">
-        <v>158</v>
+        <v>273</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>38</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>11</v>
+        <v>43</v>
+      </c>
+      <c r="B152" t="s">
+        <v>121</v>
       </c>
       <c r="C152" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>38</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>121</v>
+        <v>43</v>
+      </c>
+      <c r="B153" t="s">
+        <v>122</v>
       </c>
       <c r="C153" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>38</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>122</v>
+        <v>43</v>
+      </c>
+      <c r="B154" t="s">
+        <v>123</v>
       </c>
       <c r="C154" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>38</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>123</v>
+        <v>43</v>
+      </c>
+      <c r="B155" t="s">
+        <v>124</v>
       </c>
       <c r="C155" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>38</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>124</v>
+        <v>43</v>
+      </c>
+      <c r="B156" t="s">
+        <v>125</v>
       </c>
       <c r="C156" t="s">
-        <v>169</v>
+        <v>278</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>39</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>10</v>
+        <v>43</v>
+      </c>
+      <c r="B157" t="s">
+        <v>126</v>
       </c>
       <c r="C157" t="s">
-        <v>158</v>
+        <v>279</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>39</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>11</v>
+        <v>43</v>
+      </c>
+      <c r="B158" t="s">
+        <v>127</v>
       </c>
       <c r="C158" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>39</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>121</v>
+        <v>43</v>
+      </c>
+      <c r="B159" t="s">
+        <v>128</v>
       </c>
       <c r="C159" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>39</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>122</v>
+        <v>43</v>
+      </c>
+      <c r="B160" t="s">
+        <v>129</v>
       </c>
       <c r="C160" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>39</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>123</v>
+        <v>43</v>
+      </c>
+      <c r="B161" t="s">
+        <v>130</v>
       </c>
       <c r="C161" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>39</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>124</v>
+        <v>43</v>
+      </c>
+      <c r="B162" t="s">
+        <v>131</v>
       </c>
       <c r="C162" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>39</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>125</v>
+        <v>43</v>
+      </c>
+      <c r="B163" t="s">
+        <v>132</v>
       </c>
       <c r="C163" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>39</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>126</v>
+        <v>43</v>
+      </c>
+      <c r="B164" t="s">
+        <v>133</v>
       </c>
       <c r="C164" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>41</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>10</v>
+        <v>52</v>
+      </c>
+      <c r="B165" t="s">
+        <v>11</v>
       </c>
       <c r="C165" t="s">
-        <v>158</v>
+        <v>286</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>41</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>11</v>
+        <v>52</v>
+      </c>
+      <c r="B166" t="s">
+        <v>114</v>
       </c>
       <c r="C166" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>41</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>121</v>
+        <v>52</v>
+      </c>
+      <c r="B167" t="s">
+        <v>115</v>
       </c>
       <c r="C167" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>41</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>122</v>
+        <v>52</v>
+      </c>
+      <c r="B168" t="s">
+        <v>116</v>
       </c>
       <c r="C168" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>41</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>123</v>
+        <v>30</v>
+      </c>
+      <c r="B169" t="s">
+        <v>11</v>
       </c>
       <c r="C169" t="s">
-        <v>169</v>
+        <v>290</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>42</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="B170" t="s">
+        <v>114</v>
       </c>
       <c r="C170" t="s">
-        <v>158</v>
+        <v>291</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>42</v>
-      </c>
-      <c r="B171" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B171" t="s">
         <v>11</v>
       </c>
       <c r="C171" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>42</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>121</v>
+        <v>53</v>
+      </c>
+      <c r="B172" t="s">
+        <v>114</v>
       </c>
       <c r="C172" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>42</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>122</v>
+        <v>53</v>
+      </c>
+      <c r="B173" t="s">
+        <v>115</v>
       </c>
       <c r="C173" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
-        <v>42</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C174" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
-        <v>42</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C175" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>42</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C176" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
-        <v>42</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C177" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
-        <v>42</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C178" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
-        <v>42</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C179" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
-        <v>42</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C180" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
-        <v>42</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C181" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
-        <v>46</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C182" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
-        <v>46</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C183" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
-        <v>46</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C184" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
-        <v>46</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C185" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
-        <v>46</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C186" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
-        <v>46</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C187" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
-        <v>46</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C188" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
-        <v>46</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C189" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
-        <v>46</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C190" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
-        <v>46</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C191" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
-        <v>46</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C192" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
-        <v>46</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C193" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
-        <v>46</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C194" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
-        <v>46</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C195" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
-        <v>46</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C196" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
-        <v>46</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C197" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
-        <v>46</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C198" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
-        <v>46</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C199" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
-        <v>46</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C200" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
-        <v>46</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C201" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
-        <v>46</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C202" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
-        <v>46</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C203" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
-        <v>55</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C204" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
-        <v>55</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C205" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
-        <v>55</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C206" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
-        <v>55</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C207" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
-        <v>33</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C208" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A209" t="s">
-        <v>33</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C209" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A210" t="s">
-        <v>56</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C210" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A211" t="s">
-        <v>56</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C211" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A212" t="s">
-        <v>56</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C212" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/iecodebook_chapter2.xlsx
+++ b/iecodebook_chapter2.xlsx
@@ -1,28 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d57917il\Documents\GitHub\Chapter2-PhDthesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F31BA2-A7FF-4A9C-B98D-BD410DEB76E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854FBB29-230B-4EBD-8426-946D8EF0AF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="15" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="choices_current" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="424">
   <si>
     <t>name</t>
   </si>
@@ -132,12 +145,21 @@
     <t>pos_ocu</t>
   </si>
   <si>
+    <t>seg_soc</t>
+  </si>
+  <si>
     <t>rama</t>
   </si>
   <si>
     <t>c_ocu11c</t>
   </si>
   <si>
+    <t>dur9c</t>
+  </si>
+  <si>
+    <t>emple7c</t>
+  </si>
+  <si>
     <t>rama_est1</t>
   </si>
   <si>
@@ -150,6 +172,9 @@
     <t>hij5c</t>
   </si>
   <si>
+    <t>hrsocup</t>
+  </si>
+  <si>
     <t>ingocup</t>
   </si>
   <si>
@@ -159,6 +184,12 @@
     <t>emp_ppal</t>
   </si>
   <si>
+    <t>tue_ppal</t>
+  </si>
+  <si>
+    <t>mh_col</t>
+  </si>
+  <si>
     <t>p3o</t>
   </si>
   <si>
@@ -198,6 +229,12 @@
     <t>work_fem_serv</t>
   </si>
   <si>
+    <t>informal_jobs</t>
+  </si>
+  <si>
+    <t>informal_sector</t>
+  </si>
+  <si>
     <t>food</t>
   </si>
   <si>
@@ -294,12 +331,21 @@
     <t>Clasificación de la población ocupada por posición en la ocupación</t>
   </si>
   <si>
+    <t>Clasificación de la población ocupada por condición de acceso a instituciones de</t>
+  </si>
+  <si>
     <t>Clasificación de la población ocupada por sector de actividad económica</t>
   </si>
   <si>
     <t>Clasificación de la población ocupada por condición de ocupación</t>
   </si>
   <si>
+    <t>Clasificación de la población ocupada por la duración de la jornada</t>
+  </si>
+  <si>
+    <t>Clasificación de la población ocupada por número de trabajadores</t>
+  </si>
+  <si>
     <t>Clasificación de la población ocupada según sector de actividad-Totales</t>
   </si>
   <si>
@@ -312,6 +358,9 @@
     <t>Clasificación de la población femenina de 14 años y más por número de hijos</t>
   </si>
   <si>
+    <t>Horas trabajadas a la semana</t>
+  </si>
+  <si>
     <t>Ingreso mensual</t>
   </si>
   <si>
@@ -321,6 +370,12 @@
     <t>Clasificación de empleos formales e informales de la primera actividad</t>
   </si>
   <si>
+    <t>Tipo de unidad económica del trabajo principal</t>
+  </si>
+  <si>
+    <t>Columnas de la matriz Hussmanns del trabajo principal</t>
+  </si>
+  <si>
     <t>Para conseguir o conservar este trabajo, � ... se vio obligado a cambiar de ciud</t>
   </si>
   <si>
@@ -558,6 +613,30 @@
     <t>Desocupados Ausentes sin ingreso y sin nexo  laborla</t>
   </si>
   <si>
+    <t>Ausentes temporales con vínculo laboral</t>
+  </si>
+  <si>
+    <t>Menos de 15 horas</t>
+  </si>
+  <si>
+    <t>De 15 a 24 horas</t>
+  </si>
+  <si>
+    <t>De 25 a 34 horas</t>
+  </si>
+  <si>
+    <t>De 35 a 39 horas</t>
+  </si>
+  <si>
+    <t>De 40 a 48 horas</t>
+  </si>
+  <si>
+    <t>De 49 a 56 horas</t>
+  </si>
+  <si>
+    <t>Más de 56 horas</t>
+  </si>
+  <si>
     <t>Menor de doce años</t>
   </si>
   <si>
@@ -606,6 +685,24 @@
     <t>Empleo formal</t>
   </si>
   <si>
+    <t>persona</t>
+  </si>
+  <si>
+    <t>De 2 a 5 personas</t>
+  </si>
+  <si>
+    <t>De 6 a 10 personas</t>
+  </si>
+  <si>
+    <t>De 11 a 15 personas</t>
+  </si>
+  <si>
+    <t>De 16 a 50 personas</t>
+  </si>
+  <si>
+    <t>De 51 y más personas</t>
+  </si>
+  <si>
     <t>Aguascalientes</t>
   </si>
   <si>
@@ -720,6 +817,36 @@
     <t>De 6 hijos y más</t>
   </si>
   <si>
+    <t>Trabajadores subordinados y remunerados ? Asalariados INFORMALES</t>
+  </si>
+  <si>
+    <t>Trabajadores subordinados y remunerados ? Asalariados FORMALES</t>
+  </si>
+  <si>
+    <t>Trabajadores subordinados y remunerados ? Con percepciones no salariales INFORMA</t>
+  </si>
+  <si>
+    <t>Trabajadores subordinados y remunerados ? Con percepciones no salariales FORMALE</t>
+  </si>
+  <si>
+    <t>Empleadores INFORMAL</t>
+  </si>
+  <si>
+    <t>Empleadores FORMAL</t>
+  </si>
+  <si>
+    <t>Trabajadores por cuenta propia INFORMAL</t>
+  </si>
+  <si>
+    <t>Trabajadores por cuenta propia FORMAL</t>
+  </si>
+  <si>
+    <t>Trabajadores no Remunerados INFORMAL</t>
+  </si>
+  <si>
+    <t>Trabajadores no Remunerados FORMAL</t>
+  </si>
+  <si>
     <t>No sons or daughters</t>
   </si>
   <si>
@@ -882,6 +1009,12 @@
     <t>Actividades gubernamentales y de organismos internacionales</t>
   </si>
   <si>
+    <t>Con acceso</t>
+  </si>
+  <si>
+    <t>Sin acceso</t>
+  </si>
+  <si>
     <t>Low</t>
   </si>
   <si>
@@ -894,6 +1027,12 @@
     <t>High</t>
   </si>
   <si>
+    <t>Sector informal</t>
+  </si>
+  <si>
+    <t>Fuera del sector informal</t>
+  </si>
+  <si>
     <t>Urbano</t>
   </si>
   <si>
@@ -912,241 +1051,262 @@
     <t>Municipality</t>
   </si>
   <si>
+    <t>Locality size</t>
+  </si>
+  <si>
+    <t>Mexican State</t>
+  </si>
+  <si>
+    <t>Year/Quarter</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Relationship with the household head</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Marital Status</t>
+  </si>
+  <si>
+    <t>Urban/rural identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight </t>
+  </si>
+  <si>
+    <t>Economically active identifier</t>
+  </si>
+  <si>
+    <t>Economically active categories</t>
+  </si>
+  <si>
+    <t>Economically active. Extended categories</t>
+  </si>
+  <si>
+    <t>Unpaid, salaried, self-employed, employer</t>
+  </si>
+  <si>
+    <t>Economic activity</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>Economic sectors</t>
+  </si>
+  <si>
+    <t>Economic activity. Extended</t>
+  </si>
+  <si>
+    <t>Categories of non-economically active population</t>
+  </si>
+  <si>
+    <t>Social security</t>
+  </si>
+  <si>
+    <t>Duration of the daily work shift</t>
+  </si>
+  <si>
+    <t>Hours worked per week</t>
+  </si>
+  <si>
+    <t>Monthly income</t>
+  </si>
+  <si>
+    <t>Number of workers at your job</t>
+  </si>
+  <si>
+    <t>Working in the food industry</t>
+  </si>
+  <si>
+    <t>Manufacturing autoparts and transportation equipment</t>
+  </si>
+  <si>
+    <t>Manufacturing clothing</t>
+  </si>
+  <si>
+    <t>Manufacturing textile products</t>
+  </si>
+  <si>
+    <t>Manufacturing computers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturing appliances </t>
+  </si>
+  <si>
+    <t>Working in the construction industry</t>
+  </si>
+  <si>
+    <t>Working in real estate</t>
+  </si>
+  <si>
+    <t>Working in retail trade</t>
+  </si>
+  <si>
+    <t>Working in media</t>
+  </si>
+  <si>
+    <t>Working in financial services</t>
+  </si>
+  <si>
+    <t>Working in corporate services</t>
+  </si>
+  <si>
+    <t>Working in education services</t>
+  </si>
+  <si>
+    <t>Working in health services</t>
+  </si>
+  <si>
+    <t>Working in hotels or restaurants</t>
+  </si>
+  <si>
+    <t>Working in government</t>
+  </si>
+  <si>
+    <t>Working in clerical jobs</t>
+  </si>
+  <si>
+    <t>Number of sons or daughters born alive</t>
+  </si>
+  <si>
+    <t>Educational level</t>
+  </si>
+  <si>
     <t>Socioeconomoic stratum</t>
   </si>
   <si>
-    <t>Locality size</t>
-  </si>
-  <si>
-    <t>Mexican State</t>
-  </si>
-  <si>
-    <t>Year/Quarter</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>Relationship with the household head</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Educational level</t>
-  </si>
-  <si>
-    <t>Marital Status</t>
-  </si>
-  <si>
-    <t>Urban/rural identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weight </t>
-  </si>
-  <si>
-    <t>Economically active identifier</t>
-  </si>
-  <si>
-    <t>Economically active categories</t>
-  </si>
-  <si>
-    <t>Economically active. Extended categories</t>
-  </si>
-  <si>
-    <t>Unpaid, salaried, self-employed, employer</t>
-  </si>
-  <si>
-    <t>Economic activity</t>
-  </si>
-  <si>
-    <t>Occupation</t>
-  </si>
-  <si>
-    <t>Economic sectors</t>
-  </si>
-  <si>
-    <t>Economic activity. Extended</t>
-  </si>
-  <si>
-    <t>Categories of non-economically active population</t>
-  </si>
-  <si>
-    <t>Monthly income</t>
+    <t>Working Age categories</t>
+  </si>
+  <si>
+    <t>Economic sector of the company where you are working</t>
+  </si>
+  <si>
+    <t>Informal job</t>
+  </si>
+  <si>
+    <t>Informal sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hussmanss matrix for informality </t>
   </si>
   <si>
     <t>Economic activities (SCIAN categories)</t>
   </si>
   <si>
-    <t>Main job. Formal/Informal</t>
-  </si>
-  <si>
     <t>Did you move from your hometown to keep or maintain your current job?</t>
   </si>
   <si>
-    <t>Number of sons or daughters born alive</t>
+    <t>Economic activity of the company where you are working</t>
+  </si>
+  <si>
+    <t>Respondent identifier (year/quarter)</t>
   </si>
   <si>
     <t>Household identifier (year/quarter)</t>
   </si>
   <si>
-    <t>Respondent identifier (year/quarter)</t>
-  </si>
-  <si>
-    <t>Economic activity of the company where you are working</t>
-  </si>
-  <si>
-    <t>Working Age categories</t>
-  </si>
-  <si>
-    <t>Economic sector of they company where you are working</t>
-  </si>
-  <si>
-    <t>Working in the food industry</t>
-  </si>
-  <si>
-    <t>Manufacturing autoparts and transportation equipment</t>
-  </si>
-  <si>
-    <t>Manufacturing clothing</t>
-  </si>
-  <si>
-    <t>Manufacturing textile products</t>
-  </si>
-  <si>
-    <t>Manufacturing computers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturing appliances </t>
-  </si>
-  <si>
-    <t>Working in the construction industry</t>
-  </si>
-  <si>
-    <t>Working in real estate</t>
-  </si>
-  <si>
-    <t>Working in retail trade</t>
-  </si>
-  <si>
-    <t>Working in media</t>
-  </si>
-  <si>
-    <t>Working in financial services</t>
-  </si>
-  <si>
-    <t>Working in corporate services</t>
-  </si>
-  <si>
-    <t>Working in education services</t>
-  </si>
-  <si>
-    <t>Working in health services</t>
-  </si>
-  <si>
-    <t>Working in hotels or restaurants</t>
-  </si>
-  <si>
-    <t>Working in government</t>
-  </si>
-  <si>
-    <t>Working in clerical jobs</t>
+    <t>1st quarter of 2016</t>
+  </si>
+  <si>
+    <t>2nd quarter of 2017</t>
+  </si>
+  <si>
+    <t>3rd quarter of 2018</t>
+  </si>
+  <si>
+    <t>4th quarter of 2019</t>
+  </si>
+  <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t>More than 100,000 inhabitants</t>
+  </si>
+  <si>
+    <t>Between 15,000 and 99,999</t>
+  </si>
+  <si>
+    <t>Between 2,500 and 14,999</t>
+  </si>
+  <si>
+    <t>Less than 2,500 inhabitants</t>
+  </si>
+  <si>
+    <t>Free union</t>
+  </si>
+  <si>
+    <t>Separated</t>
+  </si>
+  <si>
+    <t>Divorced</t>
+  </si>
+  <si>
+    <t>Widowed</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Economically active population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-economically active population </t>
+  </si>
+  <si>
+    <t>Formal job</t>
+  </si>
+  <si>
+    <t>Employed</t>
+  </si>
+  <si>
+    <t>Unemployed</t>
+  </si>
+  <si>
+    <t>Avaiable</t>
+  </si>
+  <si>
+    <t>Unavaiable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employed without salary </t>
+  </si>
+  <si>
+    <t>Employed / absent with job nexus</t>
+  </si>
+  <si>
+    <t>Employed / absent with assured return</t>
+  </si>
+  <si>
+    <t>Unemployed but looking for a job</t>
+  </si>
+  <si>
+    <t>Unemployed, absent, and without job nexus nor assured return</t>
   </si>
   <si>
     <t>(116=1)(217=2)(318=3)(419=4)</t>
   </si>
   <si>
+    <t>(9=.d)</t>
+  </si>
+  <si>
     <t>(2=0)</t>
   </si>
   <si>
-    <t>(0=.)</t>
-  </si>
-  <si>
-    <t>1st quarter of 2016</t>
-  </si>
-  <si>
-    <t>2nd quarter of 2017</t>
-  </si>
-  <si>
-    <t>3rd quarter of 2018</t>
-  </si>
-  <si>
-    <t>4th quarter of 2019</t>
-  </si>
-  <si>
-    <t>Urban</t>
-  </si>
-  <si>
-    <t>More than 100,000 inhabitants</t>
-  </si>
-  <si>
-    <t>Between 15,000 and 99,999</t>
-  </si>
-  <si>
-    <t>Between 2,500 and 14,999</t>
-  </si>
-  <si>
-    <t>Less than 2,500 inhabitants</t>
-  </si>
-  <si>
-    <t>Free union</t>
-  </si>
-  <si>
-    <t>Separated</t>
-  </si>
-  <si>
-    <t>Divorced</t>
-  </si>
-  <si>
-    <t>Widowed</t>
-  </si>
-  <si>
-    <t>Married</t>
-  </si>
-  <si>
-    <t>Single</t>
-  </si>
-  <si>
-    <t>Economically active population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-economically active population </t>
-  </si>
-  <si>
-    <t>(9=.d)</t>
-  </si>
-  <si>
-    <t>Informal job</t>
-  </si>
-  <si>
-    <t>Formal job</t>
-  </si>
-  <si>
-    <t>Employed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employed without salary </t>
-  </si>
-  <si>
-    <t>Employed / absent with job nexus</t>
-  </si>
-  <si>
-    <t>Employed / absent with assured return</t>
-  </si>
-  <si>
-    <t>Unemployed</t>
-  </si>
-  <si>
-    <t>Unemployed but looking for a job</t>
-  </si>
-  <si>
-    <t>Unemployed, absent, and without job nexus nor assured return</t>
-  </si>
-  <si>
-    <t>Avaiable</t>
-  </si>
-  <si>
-    <t>Unavaiable</t>
+    <t>(0=.n)</t>
+  </si>
+  <si>
+    <t>(0=.d)</t>
+  </si>
+  <si>
+    <t>Formal sector</t>
   </si>
 </sst>
 </file>
@@ -1511,19 +1671,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="70.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
@@ -1547,16 +1707,16 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G1" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H1" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="I1" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -1593,7 +1753,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -1605,10 +1765,10 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
@@ -1622,7 +1782,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -1634,7 +1794,7 @@
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
@@ -1651,7 +1811,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -1663,7 +1823,7 @@
         <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -1671,8 +1831,8 @@
       <c r="H5" t="s">
         <v>24</v>
       </c>
-      <c r="I5" t="s">
-        <v>20</v>
+      <c r="I5" s="2" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -1680,7 +1840,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -1692,21 +1852,21 @@
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>343</v>
+      <c r="I6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -1721,7 +1881,7 @@
         <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
@@ -1734,8 +1894,11 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -1747,10 +1910,10 @@
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
@@ -1764,7 +1927,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -1776,7 +1939,7 @@
         <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
@@ -1784,13 +1947,16 @@
       <c r="H9" t="s">
         <v>20</v>
       </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -1802,7 +1968,7 @@
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
@@ -1811,7 +1977,7 @@
         <v>29</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>363</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -1819,7 +1985,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -1831,7 +1997,7 @@
         <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
@@ -1840,7 +2006,7 @@
         <v>30</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>344</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -1848,7 +2014,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -1860,10 +2026,10 @@
         <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="H12" t="s">
         <v>20</v>
@@ -1877,7 +2043,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1889,7 +2055,7 @@
         <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G13" t="s">
         <v>5</v>
@@ -1906,7 +2072,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
@@ -1918,7 +2084,7 @@
         <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
@@ -1935,7 +2101,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
@@ -1947,7 +2113,7 @@
         <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G15" t="s">
         <v>5</v>
@@ -1964,7 +2130,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
@@ -1976,7 +2142,7 @@
         <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
@@ -1993,7 +2159,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
@@ -2005,7 +2171,7 @@
         <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G17" t="s">
         <v>5</v>
@@ -2013,8 +2179,8 @@
       <c r="H17" t="s">
         <v>36</v>
       </c>
-      <c r="I17" t="s">
-        <v>20</v>
+      <c r="I17" s="2" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -2022,7 +2188,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -2034,7 +2200,7 @@
         <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G18" t="s">
         <v>5</v>
@@ -2051,7 +2217,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
@@ -2063,7 +2229,7 @@
         <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G19" t="s">
         <v>5</v>
@@ -2080,7 +2246,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
@@ -2092,7 +2258,7 @@
         <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
@@ -2109,7 +2275,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
@@ -2121,7 +2287,7 @@
         <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G21" t="s">
         <v>5</v>
@@ -2134,11 +2300,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
@@ -2150,7 +2316,7 @@
         <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G22" t="s">
         <v>5</v>
@@ -2167,7 +2333,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
@@ -2179,16 +2345,16 @@
         <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G23" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="H23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>345</v>
+        <v>42</v>
+      </c>
+      <c r="I23" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -2196,7 +2362,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
@@ -2208,7 +2374,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G24" t="s">
         <v>5</v>
@@ -2221,11 +2387,11 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>318</v>
+      <c r="A25" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
@@ -2237,7 +2403,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G25" t="s">
         <v>5</v>
@@ -2254,7 +2420,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
@@ -2266,13 +2432,13 @@
         <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G26" t="s">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
         <v>20</v>
@@ -2283,7 +2449,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="C27" t="s">
         <v>20</v>
@@ -2295,16 +2461,16 @@
         <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G27" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="H27" t="s">
-        <v>112</v>
-      </c>
-      <c r="I27" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -2312,7 +2478,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>322</v>
+        <v>386</v>
       </c>
       <c r="C28" t="s">
         <v>20</v>
@@ -2324,13 +2490,13 @@
         <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="G28" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="H28" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
         <v>20</v>
@@ -2341,7 +2507,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>321</v>
+        <v>383</v>
       </c>
       <c r="C29" t="s">
         <v>20</v>
@@ -2353,24 +2519,24 @@
         <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="G29" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="H29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" t="s">
-        <v>20</v>
+        <v>48</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>20</v>
       </c>
-      <c r="B30" t="s">
-        <v>20</v>
+      <c r="B30" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="C30" t="s">
         <v>20</v>
@@ -2382,7 +2548,7 @@
         <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="G30" t="s">
         <v>5</v>
@@ -2390,8 +2556,8 @@
       <c r="H30" t="s">
         <v>49</v>
       </c>
-      <c r="I30" t="s">
-        <v>20</v>
+      <c r="I30" s="2" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -2399,7 +2565,7 @@
         <v>20</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>320</v>
+        <v>385</v>
       </c>
       <c r="C31" t="s">
         <v>20</v>
@@ -2411,7 +2577,7 @@
         <v>50</v>
       </c>
       <c r="F31" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G31" t="s">
         <v>5</v>
@@ -2428,7 +2594,7 @@
         <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>303</v>
+        <v>387</v>
       </c>
       <c r="C32" t="s">
         <v>20</v>
@@ -2440,7 +2606,7 @@
         <v>51</v>
       </c>
       <c r="F32" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G32" t="s">
         <v>5</v>
@@ -2457,7 +2623,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>296</v>
+        <v>388</v>
       </c>
       <c r="C33" t="s">
         <v>20</v>
@@ -2469,13 +2635,13 @@
         <v>52</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G33" t="s">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="I33" t="s">
         <v>20</v>
@@ -2486,7 +2652,7 @@
         <v>20</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>324</v>
+        <v>389</v>
       </c>
       <c r="C34" t="s">
         <v>20</v>
@@ -2498,13 +2664,13 @@
         <v>53</v>
       </c>
       <c r="F34" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s">
         <v>20</v>
@@ -2515,7 +2681,7 @@
         <v>20</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>325</v>
+        <v>390</v>
       </c>
       <c r="C35" t="s">
         <v>20</v>
@@ -2527,13 +2693,13 @@
         <v>54</v>
       </c>
       <c r="F35" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="G35" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s">
         <v>20</v>
@@ -2556,13 +2722,13 @@
         <v>55</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="G36" t="s">
         <v>5</v>
       </c>
       <c r="H36" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I36" t="s">
         <v>20</v>
@@ -2572,8 +2738,8 @@
       <c r="A37" t="s">
         <v>20</v>
       </c>
-      <c r="B37" t="s">
-        <v>20</v>
+      <c r="B37" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="C37" t="s">
         <v>20</v>
@@ -2585,13 +2751,13 @@
         <v>56</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="G37" t="s">
         <v>5</v>
       </c>
       <c r="H37" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="I37" t="s">
         <v>20</v>
@@ -2601,8 +2767,8 @@
       <c r="A38" t="s">
         <v>20</v>
       </c>
-      <c r="B38" t="s">
-        <v>20</v>
+      <c r="B38" s="1" t="s">
+        <v>379</v>
       </c>
       <c r="C38" t="s">
         <v>20</v>
@@ -2614,13 +2780,13 @@
         <v>57</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="G38" t="s">
         <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I38" t="s">
         <v>20</v>
@@ -2631,7 +2797,7 @@
         <v>20</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="C39" t="s">
         <v>20</v>
@@ -2649,7 +2815,7 @@
         <v>5</v>
       </c>
       <c r="H39" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I39" t="s">
         <v>20</v>
@@ -2660,7 +2826,7 @@
         <v>20</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>327</v>
+        <v>381</v>
       </c>
       <c r="C40" t="s">
         <v>20</v>
@@ -2672,13 +2838,13 @@
         <v>59</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="G40" t="s">
         <v>5</v>
       </c>
       <c r="H40" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="I40" t="s">
         <v>20</v>
@@ -2689,7 +2855,7 @@
         <v>20</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="C41" t="s">
         <v>20</v>
@@ -2701,13 +2867,13 @@
         <v>60</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="G41" t="s">
         <v>5</v>
       </c>
       <c r="H41" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I41" t="s">
         <v>20</v>
@@ -2717,8 +2883,8 @@
       <c r="A42" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>329</v>
+      <c r="B42" t="s">
+        <v>20</v>
       </c>
       <c r="C42" t="s">
         <v>20</v>
@@ -2746,8 +2912,8 @@
       <c r="A43" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>330</v>
+      <c r="B43" t="s">
+        <v>20</v>
       </c>
       <c r="C43" t="s">
         <v>20</v>
@@ -2775,8 +2941,8 @@
       <c r="A44" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>331</v>
+      <c r="B44" t="s">
+        <v>20</v>
       </c>
       <c r="C44" t="s">
         <v>20</v>
@@ -2805,7 +2971,7 @@
         <v>20</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>332</v>
+        <v>383</v>
       </c>
       <c r="C45" t="s">
         <v>20</v>
@@ -2834,7 +3000,7 @@
         <v>20</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="C46" t="s">
         <v>20</v>
@@ -2863,7 +3029,7 @@
         <v>20</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="C47" t="s">
         <v>20</v>
@@ -2892,7 +3058,7 @@
         <v>20</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="C48" t="s">
         <v>20</v>
@@ -2921,7 +3087,7 @@
         <v>20</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="C49" t="s">
         <v>20</v>
@@ -2950,7 +3116,7 @@
         <v>20</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="C50" t="s">
         <v>20</v>
@@ -2979,7 +3145,7 @@
         <v>20</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="C51" t="s">
         <v>20</v>
@@ -3008,7 +3174,7 @@
         <v>20</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="C52" t="s">
         <v>20</v>
@@ -3037,7 +3203,7 @@
         <v>20</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="C53" t="s">
         <v>20</v>
@@ -3066,7 +3232,7 @@
         <v>20</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="C54" t="s">
         <v>20</v>
@@ -3095,7 +3261,7 @@
         <v>20</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="C55" t="s">
         <v>20</v>
@@ -3116,6 +3282,238 @@
         <v>20</v>
       </c>
       <c r="I55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" t="s">
+        <v>76</v>
+      </c>
+      <c r="F57" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" t="s">
+        <v>77</v>
+      </c>
+      <c r="F58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" t="s">
+        <v>78</v>
+      </c>
+      <c r="F59" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" t="s">
+        <v>79</v>
+      </c>
+      <c r="F60" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" t="s">
+        <v>80</v>
+      </c>
+      <c r="F61" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" t="s">
+        <v>5</v>
+      </c>
+      <c r="H61" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" t="s">
+        <v>81</v>
+      </c>
+      <c r="F62" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" t="s">
+        <v>82</v>
+      </c>
+      <c r="F63" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63" t="s">
+        <v>5</v>
+      </c>
+      <c r="H63" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3126,16 +3524,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.36328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3213,7 +3611,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -3224,7 +3622,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -3235,7 +3633,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -3246,7 +3644,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -3257,7 +3655,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -3268,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -3279,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -3290,7 +3688,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -3301,7 +3699,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>353</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -3312,7 +3710,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -3323,7 +3721,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -3331,10 +3729,10 @@
         <v>29</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -3342,10 +3740,10 @@
         <v>29</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -3353,10 +3751,10 @@
         <v>29</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -3364,10 +3762,10 @@
         <v>29</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -3375,10 +3773,10 @@
         <v>29</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -3411,7 +3809,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -3419,18 +3817,18 @@
         <v>32</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>18</v>
@@ -3438,24 +3836,24 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -3477,7 +3875,7 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -3485,10 +3883,10 @@
         <v>33</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C32" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -3496,10 +3894,10 @@
         <v>33</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C33" t="s">
-        <v>373</v>
+        <v>411</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -3507,10 +3905,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C34" t="s">
-        <v>374</v>
+        <v>412</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -3532,7 +3930,7 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -3540,10 +3938,10 @@
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C37" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -3551,10 +3949,10 @@
         <v>34</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C38" t="s">
-        <v>368</v>
+        <v>414</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -3562,10 +3960,10 @@
         <v>34</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C39" t="s">
-        <v>369</v>
+        <v>415</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -3573,10 +3971,10 @@
         <v>34</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C40" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -3584,10 +3982,10 @@
         <v>34</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C41" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -3595,10 +3993,87 @@
         <v>34</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C42" t="s">
-        <v>372</v>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" t="s">
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -3608,22 +4083,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C173"/>
+  <dimension ref="A1:C209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="C154" sqref="C154"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="C189" sqref="C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="3"/>
+    <col min="3" max="3" width="75.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C1" t="s">
@@ -3631,1895 +4108,2291 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C73" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C74" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C76" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C77" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C78" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C79" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C80" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C81" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C82" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C83" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C84" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C85" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C86" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C87" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C88" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C89" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C90" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C91" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C92" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C93" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="C94" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C95" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C96" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C97" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C98" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C99" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C100" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C101" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C102" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C103" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C108" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C109" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C110" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C111" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C114" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C115" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C116" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C117" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C118" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C119" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C120" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C121" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C122" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C125" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C126" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C127" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C128" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C131" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C133" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C136" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C137" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C138" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C139" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C140" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C143" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C144" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C145" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C146" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B147" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="C147" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B148" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="C148" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B149" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C149" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B150" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C150" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B151" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C151" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="B152" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C152" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="B153" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C153" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B154" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C154" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C155" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B156" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="C156" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C157" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C158" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C159" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C162" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C163" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C164" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C165" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C166" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C167" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C168" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C169" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C170" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C171" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B172" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C172" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B173" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C22" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C173" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C174" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C175" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C176" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C177" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C178" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C179" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C180" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C181" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C182" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C183" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C184" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C185" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C186" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C187" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C188" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C189" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C190" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C191" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C192" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C193" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B194" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C24" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C194" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B195" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C25" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C195" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A196" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C196" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A197" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C197" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A198" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C198" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A199" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C199" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A200" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C200" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A201" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C201" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A202" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B202" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C29" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C202" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A203" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B203" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C30" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>116</v>
-      </c>
-      <c r="C33" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C34" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="C203" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A204" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C204" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A205" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B205" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C38" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="C205" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A206" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C206" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A207" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B207" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C46" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" t="s">
-        <v>114</v>
-      </c>
-      <c r="C47" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" t="s">
-        <v>115</v>
-      </c>
-      <c r="C48" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" t="s">
-        <v>116</v>
-      </c>
-      <c r="C49" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" t="s">
-        <v>117</v>
-      </c>
-      <c r="C50" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>44</v>
-      </c>
-      <c r="B52" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>44</v>
-      </c>
-      <c r="B53" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" t="s">
-        <v>115</v>
-      </c>
-      <c r="C56" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>24</v>
-      </c>
-      <c r="B57" t="s">
-        <v>116</v>
-      </c>
-      <c r="C57" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>24</v>
-      </c>
-      <c r="B58" t="s">
-        <v>117</v>
-      </c>
-      <c r="C58" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>24</v>
-      </c>
-      <c r="B59" t="s">
-        <v>118</v>
-      </c>
-      <c r="C59" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" t="s">
-        <v>119</v>
-      </c>
-      <c r="C60" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>24</v>
-      </c>
-      <c r="B61" t="s">
-        <v>120</v>
-      </c>
-      <c r="C61" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62" t="s">
-        <v>121</v>
-      </c>
-      <c r="C62" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>24</v>
-      </c>
-      <c r="B63" t="s">
-        <v>122</v>
-      </c>
-      <c r="C63" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>24</v>
-      </c>
-      <c r="B64" t="s">
-        <v>123</v>
-      </c>
-      <c r="C64" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>24</v>
-      </c>
-      <c r="B65" t="s">
-        <v>124</v>
-      </c>
-      <c r="C65" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>24</v>
-      </c>
-      <c r="B66" t="s">
-        <v>125</v>
-      </c>
-      <c r="C66" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>24</v>
-      </c>
-      <c r="B67" t="s">
-        <v>126</v>
-      </c>
-      <c r="C67" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>24</v>
-      </c>
-      <c r="B68" t="s">
-        <v>127</v>
-      </c>
-      <c r="C68" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>24</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="C207" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A208" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B208" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C69" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>24</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="C208" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A209" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B209" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C70" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>24</v>
-      </c>
-      <c r="B71" t="s">
-        <v>130</v>
-      </c>
-      <c r="C71" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>24</v>
-      </c>
-      <c r="B72" t="s">
-        <v>131</v>
-      </c>
-      <c r="C72" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>24</v>
-      </c>
-      <c r="B73" t="s">
-        <v>132</v>
-      </c>
-      <c r="C73" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>24</v>
-      </c>
-      <c r="B74" t="s">
-        <v>133</v>
-      </c>
-      <c r="C74" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>24</v>
-      </c>
-      <c r="B75" t="s">
-        <v>134</v>
-      </c>
-      <c r="C75" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>24</v>
-      </c>
-      <c r="B76" t="s">
-        <v>135</v>
-      </c>
-      <c r="C76" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>24</v>
-      </c>
-      <c r="B77" t="s">
-        <v>136</v>
-      </c>
-      <c r="C77" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>24</v>
-      </c>
-      <c r="B78" t="s">
-        <v>137</v>
-      </c>
-      <c r="C78" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>24</v>
-      </c>
-      <c r="B79" t="s">
-        <v>138</v>
-      </c>
-      <c r="C79" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>24</v>
-      </c>
-      <c r="B80" t="s">
-        <v>139</v>
-      </c>
-      <c r="C80" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>24</v>
-      </c>
-      <c r="B81" t="s">
-        <v>140</v>
-      </c>
-      <c r="C81" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>24</v>
-      </c>
-      <c r="B82" t="s">
-        <v>141</v>
-      </c>
-      <c r="C82" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>24</v>
-      </c>
-      <c r="B83" t="s">
-        <v>142</v>
-      </c>
-      <c r="C83" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>24</v>
-      </c>
-      <c r="B84" t="s">
-        <v>143</v>
-      </c>
-      <c r="C84" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>24</v>
-      </c>
-      <c r="B85" t="s">
-        <v>144</v>
-      </c>
-      <c r="C85" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>49</v>
-      </c>
-      <c r="B86" t="s">
-        <v>10</v>
-      </c>
-      <c r="C86" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>49</v>
-      </c>
-      <c r="B87" t="s">
-        <v>11</v>
-      </c>
-      <c r="C87" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>41</v>
-      </c>
-      <c r="B88" t="s">
-        <v>10</v>
-      </c>
-      <c r="C88" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>41</v>
-      </c>
-      <c r="B89" t="s">
-        <v>11</v>
-      </c>
-      <c r="C89" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>41</v>
-      </c>
-      <c r="B90" t="s">
-        <v>114</v>
-      </c>
-      <c r="C90" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>41</v>
-      </c>
-      <c r="B91" t="s">
-        <v>115</v>
-      </c>
-      <c r="C91" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>41</v>
-      </c>
-      <c r="B92" t="s">
-        <v>116</v>
-      </c>
-      <c r="C92" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>41</v>
-      </c>
-      <c r="B93" t="s">
-        <v>117</v>
-      </c>
-      <c r="C93" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>50</v>
-      </c>
-      <c r="B94" t="s">
-        <v>10</v>
-      </c>
-      <c r="C94" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>50</v>
-      </c>
-      <c r="B95" t="s">
-        <v>11</v>
-      </c>
-      <c r="C95" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>50</v>
-      </c>
-      <c r="B96" t="s">
-        <v>114</v>
-      </c>
-      <c r="C96" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>50</v>
-      </c>
-      <c r="B97" t="s">
-        <v>115</v>
-      </c>
-      <c r="C97" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>50</v>
-      </c>
-      <c r="B98" t="s">
-        <v>116</v>
-      </c>
-      <c r="C98" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>50</v>
-      </c>
-      <c r="B99" t="s">
-        <v>117</v>
-      </c>
-      <c r="C99" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>45</v>
-      </c>
-      <c r="B100" t="s">
-        <v>10</v>
-      </c>
-      <c r="C100" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>45</v>
-      </c>
-      <c r="B101" t="s">
-        <v>11</v>
-      </c>
-      <c r="C101" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>45</v>
-      </c>
-      <c r="B102" t="s">
-        <v>114</v>
-      </c>
-      <c r="C102" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>112</v>
-      </c>
-      <c r="B103" t="s">
-        <v>10</v>
-      </c>
-      <c r="C103" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>25</v>
-      </c>
-      <c r="B104" t="s">
-        <v>145</v>
-      </c>
-      <c r="C104" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>40</v>
-      </c>
-      <c r="B105" t="s">
-        <v>10</v>
-      </c>
-      <c r="C105" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>40</v>
-      </c>
-      <c r="B106" t="s">
-        <v>11</v>
-      </c>
-      <c r="C106" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>40</v>
-      </c>
-      <c r="B107" t="s">
-        <v>114</v>
-      </c>
-      <c r="C107" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>40</v>
-      </c>
-      <c r="B108" t="s">
-        <v>115</v>
-      </c>
-      <c r="C108" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>40</v>
-      </c>
-      <c r="B109" t="s">
-        <v>116</v>
-      </c>
-      <c r="C109" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>40</v>
-      </c>
-      <c r="B110" t="s">
-        <v>117</v>
-      </c>
-      <c r="C110" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>40</v>
-      </c>
-      <c r="B111" t="s">
-        <v>118</v>
-      </c>
-      <c r="C111" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>35</v>
-      </c>
-      <c r="B112" t="s">
-        <v>10</v>
-      </c>
-      <c r="C112" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>35</v>
-      </c>
-      <c r="B113" t="s">
-        <v>11</v>
-      </c>
-      <c r="C113" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>35</v>
-      </c>
-      <c r="B114" t="s">
-        <v>114</v>
-      </c>
-      <c r="C114" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>35</v>
-      </c>
-      <c r="B115" t="s">
-        <v>115</v>
-      </c>
-      <c r="C115" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>35</v>
-      </c>
-      <c r="B116" t="s">
-        <v>116</v>
-      </c>
-      <c r="C116" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>35</v>
-      </c>
-      <c r="B117" t="s">
-        <v>117</v>
-      </c>
-      <c r="C117" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>36</v>
-      </c>
-      <c r="B118" t="s">
-        <v>10</v>
-      </c>
-      <c r="C118" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>36</v>
-      </c>
-      <c r="B119" t="s">
-        <v>11</v>
-      </c>
-      <c r="C119" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>36</v>
-      </c>
-      <c r="B120" t="s">
-        <v>114</v>
-      </c>
-      <c r="C120" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>36</v>
-      </c>
-      <c r="B121" t="s">
-        <v>115</v>
-      </c>
-      <c r="C121" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>36</v>
-      </c>
-      <c r="B122" t="s">
-        <v>116</v>
-      </c>
-      <c r="C122" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>36</v>
-      </c>
-      <c r="B123" t="s">
-        <v>117</v>
-      </c>
-      <c r="C123" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>36</v>
-      </c>
-      <c r="B124" t="s">
-        <v>118</v>
-      </c>
-      <c r="C124" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>36</v>
-      </c>
-      <c r="B125" t="s">
-        <v>119</v>
-      </c>
-      <c r="C125" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>38</v>
-      </c>
-      <c r="B126" t="s">
-        <v>10</v>
-      </c>
-      <c r="C126" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>38</v>
-      </c>
-      <c r="B127" t="s">
-        <v>11</v>
-      </c>
-      <c r="C127" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>38</v>
-      </c>
-      <c r="B128" t="s">
-        <v>114</v>
-      </c>
-      <c r="C128" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>38</v>
-      </c>
-      <c r="B129" t="s">
-        <v>115</v>
-      </c>
-      <c r="C129" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>38</v>
-      </c>
-      <c r="B130" t="s">
-        <v>116</v>
-      </c>
-      <c r="C130" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>39</v>
-      </c>
-      <c r="B131" t="s">
-        <v>10</v>
-      </c>
-      <c r="C131" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>39</v>
-      </c>
-      <c r="B132" t="s">
-        <v>11</v>
-      </c>
-      <c r="C132" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>39</v>
-      </c>
-      <c r="B133" t="s">
-        <v>114</v>
-      </c>
-      <c r="C133" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>39</v>
-      </c>
-      <c r="B134" t="s">
-        <v>115</v>
-      </c>
-      <c r="C134" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>39</v>
-      </c>
-      <c r="B135" t="s">
-        <v>116</v>
-      </c>
-      <c r="C135" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>39</v>
-      </c>
-      <c r="B136" t="s">
-        <v>117</v>
-      </c>
-      <c r="C136" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>39</v>
-      </c>
-      <c r="B137" t="s">
-        <v>118</v>
-      </c>
-      <c r="C137" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>39</v>
-      </c>
-      <c r="B138" t="s">
-        <v>119</v>
-      </c>
-      <c r="C138" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>39</v>
-      </c>
-      <c r="B139" t="s">
-        <v>120</v>
-      </c>
-      <c r="C139" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>39</v>
-      </c>
-      <c r="B140" t="s">
-        <v>121</v>
-      </c>
-      <c r="C140" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>39</v>
-      </c>
-      <c r="B141" t="s">
-        <v>122</v>
-      </c>
-      <c r="C141" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>39</v>
-      </c>
-      <c r="B142" t="s">
-        <v>123</v>
-      </c>
-      <c r="C142" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>43</v>
-      </c>
-      <c r="B143" t="s">
-        <v>10</v>
-      </c>
-      <c r="C143" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>43</v>
-      </c>
-      <c r="B144" t="s">
-        <v>11</v>
-      </c>
-      <c r="C144" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>43</v>
-      </c>
-      <c r="B145" t="s">
-        <v>114</v>
-      </c>
-      <c r="C145" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>43</v>
-      </c>
-      <c r="B146" t="s">
-        <v>115</v>
-      </c>
-      <c r="C146" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>43</v>
-      </c>
-      <c r="B147" t="s">
-        <v>116</v>
-      </c>
-      <c r="C147" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>43</v>
-      </c>
-      <c r="B148" t="s">
-        <v>117</v>
-      </c>
-      <c r="C148" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>43</v>
-      </c>
-      <c r="B149" t="s">
-        <v>118</v>
-      </c>
-      <c r="C149" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>43</v>
-      </c>
-      <c r="B150" t="s">
-        <v>119</v>
-      </c>
-      <c r="C150" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>43</v>
-      </c>
-      <c r="B151" t="s">
-        <v>120</v>
-      </c>
-      <c r="C151" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>43</v>
-      </c>
-      <c r="B152" t="s">
-        <v>121</v>
-      </c>
-      <c r="C152" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>43</v>
-      </c>
-      <c r="B153" t="s">
-        <v>122</v>
-      </c>
-      <c r="C153" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>43</v>
-      </c>
-      <c r="B154" t="s">
-        <v>123</v>
-      </c>
-      <c r="C154" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>43</v>
-      </c>
-      <c r="B155" t="s">
-        <v>124</v>
-      </c>
-      <c r="C155" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>43</v>
-      </c>
-      <c r="B156" t="s">
-        <v>125</v>
-      </c>
-      <c r="C156" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>43</v>
-      </c>
-      <c r="B157" t="s">
-        <v>126</v>
-      </c>
-      <c r="C157" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>43</v>
-      </c>
-      <c r="B158" t="s">
-        <v>127</v>
-      </c>
-      <c r="C158" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>43</v>
-      </c>
-      <c r="B159" t="s">
-        <v>128</v>
-      </c>
-      <c r="C159" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>43</v>
-      </c>
-      <c r="B160" t="s">
-        <v>129</v>
-      </c>
-      <c r="C160" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>43</v>
-      </c>
-      <c r="B161" t="s">
-        <v>130</v>
-      </c>
-      <c r="C161" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>43</v>
-      </c>
-      <c r="B162" t="s">
-        <v>131</v>
-      </c>
-      <c r="C162" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>43</v>
-      </c>
-      <c r="B163" t="s">
-        <v>132</v>
-      </c>
-      <c r="C163" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>43</v>
-      </c>
-      <c r="B164" t="s">
-        <v>133</v>
-      </c>
-      <c r="C164" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>52</v>
-      </c>
-      <c r="B165" t="s">
-        <v>11</v>
-      </c>
-      <c r="C165" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
-        <v>52</v>
-      </c>
-      <c r="B166" t="s">
-        <v>114</v>
-      </c>
-      <c r="C166" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>52</v>
-      </c>
-      <c r="B167" t="s">
-        <v>115</v>
-      </c>
-      <c r="C167" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>52</v>
-      </c>
-      <c r="B168" t="s">
-        <v>116</v>
-      </c>
-      <c r="C168" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
-        <v>30</v>
-      </c>
-      <c r="B169" t="s">
-        <v>11</v>
-      </c>
-      <c r="C169" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
-        <v>30</v>
-      </c>
-      <c r="B170" t="s">
-        <v>114</v>
-      </c>
-      <c r="C170" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>53</v>
-      </c>
-      <c r="B171" t="s">
-        <v>11</v>
-      </c>
-      <c r="C171" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
-        <v>53</v>
-      </c>
-      <c r="B172" t="s">
-        <v>114</v>
-      </c>
-      <c r="C172" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
-        <v>53</v>
-      </c>
-      <c r="B173" t="s">
-        <v>115</v>
-      </c>
-      <c r="C173" t="s">
-        <v>294</v>
+      <c r="C209" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
